--- a/reports_project/new_month_report/new_report_1.xlsx
+++ b/reports_project/new_month_report/new_report_1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FC40E8-0F10-2741-866E-CC7F87B3F225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF6B77C-1168-CC4E-B5DE-421E1CA6471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="3400" windowWidth="23440" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -143,39 +143,15 @@
     <t>CI3020000000000000</t>
   </si>
   <si>
-    <t>CI3030000000000000</t>
-  </si>
-  <si>
     <t>CI3010000000000000</t>
   </si>
   <si>
-    <t>3040000000000000</t>
-  </si>
-  <si>
-    <t>3030000000000000</t>
-  </si>
-  <si>
     <t>3020000000000000</t>
   </si>
   <si>
     <t>3010000000000000</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Conversion possible around 2/11/2026</t>
-  </si>
-  <si>
-    <t>Conversion possible around 3/24/2026</t>
-  </si>
-  <si>
-    <t>WOOD, RUS</t>
-  </si>
-  <si>
-    <t>ROOW, DAVE</t>
-  </si>
-  <si>
     <t>HARRIS JOHN</t>
   </si>
   <si>
@@ -456,6 +432,18 @@
   </si>
   <si>
     <t>CI1740010001000000</t>
+  </si>
+  <si>
+    <t>3000000000000000</t>
+  </si>
+  <si>
+    <t>1740010005000000</t>
+  </si>
+  <si>
+    <t>1740010000000000</t>
+  </si>
+  <si>
+    <t>1740010001000000</t>
   </si>
 </sst>
 </file>
@@ -542,7 +530,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -561,26 +549,6 @@
       <bottom style="thin">
         <color rgb="FF959595"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF959595"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF959595"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF959595"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -662,16 +630,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +648,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -692,96 +660,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +724,7 @@
     <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="51">
     <dxf>
       <font>
         <b val="0"/>
@@ -809,6 +742,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -816,7 +750,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFE2E2E2"/>
         </left>
@@ -1699,35 +1633,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2560,7 +2465,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C402898B-1F29-46AE-93E4-650D764269AA}" name="Table1" displayName="Table1" ref="A1:S91" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C402898B-1F29-46AE-93E4-650D764269AA}" name="Table1" displayName="Table1" ref="A1:S91" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A1:S91" xr:uid="{C402898B-1F29-46AE-93E4-650D764269AA}">
     <filterColumn colId="0">
       <filters>
@@ -2579,34 +2484,34 @@
     <sortCondition ref="L1:L2"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C7725C49-BB83-4C9A-A839-3E1F0BD0EF85}" name="ORG CODE" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{DC445E5B-AF04-4357-90A5-B715F53662C6}" name="EMPLOYEE NAME" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{A692BDD1-1073-4260-9F12-3FEFBF6ED388}" name="POSITION TITLE" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{41CA3841-2F3A-4FEC-B74E-1E78A00E4017}" name="IPN" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{BFADDF9E-59B8-44FD-9FFC-B12C8BDA242B}" name="PP" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{9717FFE6-92CC-4025-815E-201C2BAA45D9}" name="SERIES" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{28DB058D-9AD7-4DD3-BE86-B1D35BC2F84A}" name="GD" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{37C78208-0B0D-4D36-82F0-50001A10716B}" name="TARGET GR" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{AF995B83-5E1F-40E5-ADC2-9C8039946EF7}" name="OFC" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{EC922F22-2B24-4572-BBC6-EA6A22EE1688}" name="CAT CODE" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{97CCC4C8-E7DA-44E2-A8CA-2AAEC1A7683A}" name="EOD CIS" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{E59B726E-A00A-4D3D-B1AF-72FE2492E707}" name="ENTER PRES GR" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{0832597D-76F3-4118-BE62-D2FF84094B99}" name="WORK SCHEDULE" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{0174AC6B-A3C0-478A-8680-C2D21A0FF39D}" name="ORG_CODE_LEVEL_2_DESCR" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{2C24532D-1A05-440D-8609-800F0E859016}" name="ORG_CODE_LEVEL_3_DESCR" dataDxfId="34"/>
-    <tableColumn id="16" xr3:uid="{3B601192-224A-4D72-AD2D-127E14CEED0E}" name="ORG_CODE_LEVEL_4_DESCR" dataDxfId="33"/>
-    <tableColumn id="17" xr3:uid="{B1085BB1-9551-48DC-8A9C-2452DB6CE6E3}" name="ORG_CODE_LEVEL_5_DESCR" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{80CC6877-F265-46D8-A06A-53E4836071C6}" name="CITY_NAME" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{D1F4502D-E328-45B2-A809-278CF0774A94}" name="STATE_NAME" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{C7725C49-BB83-4C9A-A839-3E1F0BD0EF85}" name="ORG CODE" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{DC445E5B-AF04-4357-90A5-B715F53662C6}" name="EMPLOYEE NAME" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{A692BDD1-1073-4260-9F12-3FEFBF6ED388}" name="POSITION TITLE" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{41CA3841-2F3A-4FEC-B74E-1E78A00E4017}" name="IPN" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{BFADDF9E-59B8-44FD-9FFC-B12C8BDA242B}" name="PP" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{9717FFE6-92CC-4025-815E-201C2BAA45D9}" name="SERIES" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{28DB058D-9AD7-4DD3-BE86-B1D35BC2F84A}" name="GD" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{37C78208-0B0D-4D36-82F0-50001A10716B}" name="TARGET GR" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{AF995B83-5E1F-40E5-ADC2-9C8039946EF7}" name="OFC" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{EC922F22-2B24-4572-BBC6-EA6A22EE1688}" name="CAT CODE" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{97CCC4C8-E7DA-44E2-A8CA-2AAEC1A7683A}" name="EOD CIS" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{E59B726E-A00A-4D3D-B1AF-72FE2492E707}" name="ENTER PRES GR" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{0832597D-76F3-4118-BE62-D2FF84094B99}" name="WORK SCHEDULE" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{0174AC6B-A3C0-478A-8680-C2D21A0FF39D}" name="ORG_CODE_LEVEL_2_DESCR" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{2C24532D-1A05-440D-8609-800F0E859016}" name="ORG_CODE_LEVEL_3_DESCR" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{3B601192-224A-4D72-AD2D-127E14CEED0E}" name="ORG_CODE_LEVEL_4_DESCR" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{B1085BB1-9551-48DC-8A9C-2452DB6CE6E3}" name="ORG_CODE_LEVEL_5_DESCR" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{80CC6877-F265-46D8-A06A-53E4836071C6}" name="CITY_NAME" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{D1F4502D-E328-45B2-A809-278CF0774A94}" name="STATE_NAME" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}" name="Table2" displayName="Table2" ref="A1:N3" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A1:N3" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}">
-    <filterColumn colId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}" name="Table2" displayName="Table2" ref="A1:M24" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="A1:M24" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}">
+    <filterColumn colId="0">
       <filters>
         <filter val="CI3000000000000000"/>
         <filter val="CI3010000000000000"/>
@@ -2619,11 +2524,10 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N3">
-    <sortCondition ref="D1:D3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M3">
+    <sortCondition ref="C1:C3"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="14" xr3:uid="{452B8F95-B4FF-47FA-A2CD-558844FD14E3}" name="Column1" dataDxfId="26"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{F9AF80B6-6878-4BA0-BAD5-DCEE169549F7}" name="ORG_CODE" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{3977BD6E-118A-4EE5-AF0A-553AA0A2C879}" name="Employee Name" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{9C44D2D0-F2B5-4B21-958A-2DB3CB909B06}" name="APPNT EFF DATE" dataDxfId="23"/>
@@ -2670,8 +2574,8 @@
     <tableColumn id="6" xr3:uid="{2488AE99-3DE2-4129-BFDC-71F8F04611E1}" name="Title" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{A0E81232-02AE-4C14-A66E-69BC3FEA4A55}" name="WGI DATE" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{76F0FE5A-05C3-4285-8669-6D894F30E42E}" name="SCD WGI YMD" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{ECB1F6C5-1706-4772-8D39-14796F7D5F2A}" name="Organization Cd" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B659E2C5-C0C3-40FD-8535-373A47309D11}" name="Longtitle" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{ECB1F6C5-1706-4772-8D39-14796F7D5F2A}" name="Organization Cd" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{B659E2C5-C0C3-40FD-8535-373A47309D11}" name="Longtitle" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2966,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8147FA-A521-46E2-B8DB-CF7C8B7F7D75}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3050,11 +2954,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>48</v>
+      <c r="A2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3065,7 +2969,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="41">
+      <c r="L2" s="24">
         <v>45669</v>
       </c>
       <c r="M2" s="8"/>
@@ -3078,2406 +2982,2406 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="42">
+        <v>41</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="25">
         <v>45750</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="40"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="42">
+        <v>42</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="25">
         <v>45830</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="40"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="42">
+        <v>43</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="25">
         <v>45601</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="40"/>
+      <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="42">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="25">
         <v>45746</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="40"/>
+      <c r="S6" s="23"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="42">
+        <v>45</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="25">
         <v>45886</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="40"/>
+      <c r="S7" s="23"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="42">
+        <v>46</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="25">
         <v>45702</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="40"/>
+      <c r="S8" s="23"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="42">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="25">
         <v>45573</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="40"/>
+      <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="42">
+        <v>48</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="25">
         <v>45929</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="40"/>
+      <c r="S10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="42">
+        <v>49</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="25">
         <v>45788</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="40"/>
+      <c r="S11" s="23"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="42">
+        <v>50</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="25">
         <v>45640</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="40"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="42">
+        <v>51</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="25">
         <v>45844</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="40"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="42">
+        <v>52</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="25">
         <v>45718</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="40"/>
+      <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="42">
+        <v>53</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="25">
         <v>45821</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="40"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42">
+        <v>54</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="25">
         <v>45678</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="40"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="42">
+        <v>55</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="25">
         <v>45584</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="40"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="42">
+        <v>56</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="25">
         <v>45772</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="40"/>
+      <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="42">
+        <v>57</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="25">
         <v>45716</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="40"/>
+      <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="42">
+        <v>58</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="25">
         <v>45889</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="40"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="42">
+        <v>59</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="25">
         <v>45839</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="40"/>
+      <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="42">
+        <v>60</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="25">
         <v>45796</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="40"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="42">
+        <v>61</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="25">
         <v>45628</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="40"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="42">
+        <v>62</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="25">
         <v>45911</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="40"/>
+      <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="42">
+        <v>63</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="25">
         <v>45623</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="40"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="42">
+        <v>64</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="25">
         <v>45694</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="40"/>
+      <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="42">
+        <v>65</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="25">
         <v>45812</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="40"/>
+      <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="42">
+        <v>66</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="25">
         <v>45726</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="40"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="42">
+        <v>67</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="25">
         <v>45587</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="40"/>
+      <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="42">
+        <v>68</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="25">
         <v>45673</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="40"/>
+      <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="42">
+        <v>69</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="25">
         <v>45761</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="5"/>
-      <c r="S31" s="40"/>
+      <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="42">
+        <v>70</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="25">
         <v>45635</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="40"/>
+      <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="42">
+        <v>71</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="25">
         <v>45898</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="40"/>
+      <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="42">
+        <v>72</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="25">
         <v>45916</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="40"/>
+      <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="42">
+        <v>73</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="25">
         <v>45848</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="40"/>
+      <c r="S35" s="23"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="42">
+        <v>74</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="25">
         <v>45596</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="40"/>
+      <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="42">
+        <v>75</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="25">
         <v>45733</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="40"/>
+      <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="42">
+        <v>76</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="25">
         <v>45805</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
       <c r="R38" s="5"/>
-      <c r="S38" s="40"/>
+      <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="42">
+        <v>77</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="25">
         <v>45610</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="40"/>
+      <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="42">
+        <v>78</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="25">
         <v>45817</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="40"/>
+      <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="42">
+        <v>79</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="25">
         <v>45660</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="40"/>
+      <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="42">
+        <v>80</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="25">
         <v>45725</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="40"/>
+      <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="42">
+        <v>81</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="25">
         <v>45905</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="40"/>
+      <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="42">
+        <v>82</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="25">
         <v>45765</v>
       </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="40"/>
+      <c r="S44" s="23"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="42">
+        <v>83</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="25">
         <v>45853</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="40"/>
+      <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="42">
+        <v>84</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="25">
         <v>45654</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="40"/>
+      <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="42">
+        <v>85</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="25">
         <v>45572</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="40"/>
+      <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="42">
+        <v>86</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="25">
         <v>45801</v>
       </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="40"/>
+      <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="42">
+        <v>87</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="25">
         <v>45880</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="40"/>
+      <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="42">
+        <v>88</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="25">
         <v>45835</v>
       </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="40"/>
+      <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="42">
+        <v>89</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="25">
         <v>45598</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="40"/>
+      <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="42">
+        <v>90</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="25">
         <v>45699</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="40"/>
+      <c r="S52" s="23"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="42">
+        <v>91</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="25">
         <v>45737</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="40"/>
+      <c r="S53" s="23"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="42">
+        <v>92</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="25">
         <v>45686</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="40"/>
+      <c r="S54" s="23"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="42">
+        <v>93</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="25">
         <v>45748</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
       <c r="R55" s="5"/>
-      <c r="S55" s="40"/>
+      <c r="S55" s="23"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="42">
+        <v>94</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="25">
         <v>45923</v>
       </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
       <c r="R56" s="5"/>
-      <c r="S56" s="40"/>
+      <c r="S56" s="23"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="42">
+        <v>95</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="25">
         <v>45643</v>
       </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
       <c r="R57" s="5"/>
-      <c r="S57" s="40"/>
+      <c r="S57" s="23"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="42">
+        <v>96</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="25">
         <v>45578</v>
       </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="40"/>
+      <c r="S58" s="23"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="42">
+        <v>97</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="25">
         <v>45856</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
       <c r="R59" s="5"/>
-      <c r="S59" s="40"/>
+      <c r="S59" s="23"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="42">
+        <v>98</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="25">
         <v>45814</v>
       </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
       <c r="R60" s="5"/>
-      <c r="S60" s="40"/>
+      <c r="S60" s="23"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="42">
+        <v>99</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="25">
         <v>45626</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
       <c r="R61" s="5"/>
-      <c r="S61" s="40"/>
+      <c r="S61" s="23"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="42">
+        <v>100</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="25">
         <v>45871</v>
       </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="40"/>
+      <c r="S62" s="23"/>
     </row>
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="42">
+        <v>101</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="25">
         <v>45779</v>
       </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="40"/>
+      <c r="S63" s="23"/>
     </row>
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="42">
+        <v>102</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="25">
         <v>45711</v>
       </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="40"/>
+      <c r="S64" s="23"/>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="42">
+        <v>103</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="25">
         <v>45908</v>
       </c>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="40"/>
+      <c r="S65" s="23"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="42">
+        <v>104</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="25">
         <v>45647</v>
       </c>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="40"/>
+      <c r="S66" s="23"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="42">
+        <v>105</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="25">
         <v>45729</v>
       </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="40"/>
+      <c r="S67" s="23"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="42">
+        <v>106</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="25">
         <v>45666</v>
       </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
       <c r="R68" s="5"/>
-      <c r="S68" s="40"/>
+      <c r="S68" s="23"/>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="42">
+        <v>107</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="25">
         <v>45838</v>
       </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
       <c r="R69" s="5"/>
-      <c r="S69" s="40"/>
+      <c r="S69" s="23"/>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="42">
+        <v>108</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="25">
         <v>45860</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
       <c r="R70" s="5"/>
-      <c r="S70" s="40"/>
+      <c r="S70" s="23"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="42">
+        <v>109</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="25">
         <v>45620</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
       <c r="R71" s="5"/>
-      <c r="S71" s="40"/>
+      <c r="S71" s="23"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="42">
+        <v>110</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="25">
         <v>45792</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
       <c r="R72" s="5"/>
-      <c r="S72" s="40"/>
+      <c r="S72" s="23"/>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="42">
+        <v>111</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="25">
         <v>45893</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="40"/>
+      <c r="S73" s="23"/>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="42">
+        <v>112</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="25">
         <v>45577</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
       <c r="R74" s="5"/>
-      <c r="S74" s="40"/>
+      <c r="S74" s="23"/>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="42">
+        <v>113</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="25">
         <v>45753</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
       <c r="R75" s="5"/>
-      <c r="S75" s="40"/>
+      <c r="S75" s="23"/>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="42">
+        <v>114</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="25">
         <v>45675</v>
       </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
       <c r="R76" s="5"/>
-      <c r="S76" s="40"/>
+      <c r="S76" s="23"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="42">
+        <v>115</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="25">
         <v>45823</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
       <c r="R77" s="5"/>
-      <c r="S77" s="40"/>
+      <c r="S77" s="23"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="42">
+        <v>116</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="25">
         <v>45927</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
       <c r="R78" s="5"/>
-      <c r="S78" s="40"/>
+      <c r="S78" s="23"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="42">
+        <v>117</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="25">
         <v>45721</v>
       </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="40"/>
+      <c r="S79" s="23"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="42">
+        <v>118</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="25">
         <v>45863</v>
       </c>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="40"/>
+      <c r="S80" s="23"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="42">
+        <v>119</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="25">
         <v>45637</v>
       </c>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
       <c r="R81" s="5"/>
-      <c r="S81" s="40"/>
+      <c r="S81" s="23"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="42">
+        <v>120</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="25">
         <v>45697</v>
       </c>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="40"/>
+      <c r="S82" s="23"/>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="42">
+        <v>121</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="25">
         <v>45593</v>
       </c>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
       <c r="R83" s="5"/>
-      <c r="S83" s="40"/>
+      <c r="S83" s="23"/>
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="42">
+        <v>122</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="25">
         <v>45827</v>
       </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
       <c r="R84" s="5"/>
-      <c r="S84" s="40"/>
+      <c r="S84" s="23"/>
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="42">
+        <v>123</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="25">
         <v>45767</v>
       </c>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="40"/>
+      <c r="S85" s="23"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="42">
+        <v>124</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="25">
         <v>45883</v>
       </c>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
       <c r="R86" s="5"/>
-      <c r="S86" s="40"/>
+      <c r="S86" s="23"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="42">
+        <v>125</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="25">
         <v>45605</v>
       </c>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="40"/>
+      <c r="S87" s="23"/>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="42">
+        <v>126</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="25">
         <v>45741</v>
       </c>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="40"/>
+      <c r="S88" s="23"/>
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="42">
+        <v>127</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="25">
         <v>45841</v>
       </c>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
       <c r="R89" s="5"/>
-      <c r="S89" s="40"/>
+      <c r="S89" s="23"/>
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="42">
+        <v>128</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="25">
         <v>45632</v>
       </c>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
       <c r="R90" s="5"/>
-      <c r="S90" s="40"/>
+      <c r="S90" s="23"/>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="42">
+        <v>129</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="25">
         <v>45901</v>
       </c>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
       <c r="R91" s="5"/>
-      <c r="S91" s="40"/>
+      <c r="S91" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5490,242 +5394,556 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF21CF73-D586-4E45-8A55-9C7E858C8B75}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" style="2"/>
-    <col min="12" max="12" width="41.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="44.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="41.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="44.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D1" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J1" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="9">
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9">
         <v>45333</v>
       </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9">
         <v>45375</v>
       </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="27"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="26">
+        <v>45292</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="28"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="15"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="26">
+        <v>45296</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="26">
+        <v>45330</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="26">
+        <v>45339</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="26">
+        <v>45347</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="26">
+        <v>45349</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="26">
+        <v>45308</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="26">
+        <v>45318</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="26">
+        <v>45601</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="26">
+        <v>45318</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="26">
+        <v>45394</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="26">
+        <v>45512</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="26">
+        <v>45488</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="26">
+        <v>45489</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="26">
+        <v>45397</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="26">
+        <v>45461</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="26">
+        <v>45448</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="26">
+        <v>45450</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="26">
+        <v>45323</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="26">
+        <v>45570</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="26">
+        <v>45536</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5740,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C2578-2525-4DC1-B795-16107A4AB6FC}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5760,260 +5978,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20">
         <v>45935</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35">
+      <c r="H2" s="20"/>
+      <c r="I2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20">
         <v>45949</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35">
+      <c r="H3" s="20"/>
+      <c r="I3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20">
         <v>45949</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35">
+      <c r="H4" s="20"/>
+      <c r="I4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20">
         <v>45949</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35">
+      <c r="H5" s="20"/>
+      <c r="I5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20">
         <v>45963</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35">
+      <c r="H6" s="20"/>
+      <c r="I6" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20">
         <v>45963</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35">
+      <c r="H7" s="20"/>
+      <c r="I7" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20">
         <v>45977</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35">
+      <c r="H8" s="20"/>
+      <c r="I8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20">
         <v>45991</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35">
+      <c r="H9" s="20"/>
+      <c r="I9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20">
         <v>45991</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35">
+      <c r="H10" s="20"/>
+      <c r="I10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
         <v>46019</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20">
+        <v>46019</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20">
+        <v>46033</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20">
+        <v>46033</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20">
+        <v>46047</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35">
-        <v>46019</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35">
-        <v>46033</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35">
-        <v>46033</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35">
-        <v>46047</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="34"/>
+      <c r="J15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6025,61 +6271,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="bf465682-a195-48e8-a373-685144231e9c">true</_dlc_DocIdPersistId>
+    <_dlc_DocId xmlns="bf465682-a195-48e8-a373-685144231e9c">WCVJDXXHMT7D-945044613-85</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="bf465682-a195-48e8-a373-685144231e9c">
+      <Url>https://cisgov.sharepoint.com/sites/ECNhct/Offices/hct/HRIT/HCTReportingCenter/_layouts/15/DocIdRedir.aspx?ID=WCVJDXXHMT7D-945044613-85</Url>
+      <Description>WCVJDXXHMT7D-945044613-85</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AD585D709FE2F4E8E78CCAD878BB7B2" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86a8288cca08b2275286a7cc5415fffa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c5ed04f4-622d-4734-9b15-89f52925a551" xmlns:ns3="bf465682-a195-48e8-a373-685144231e9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ae85b8bc60391f2b6a9cfc680ba816" ns2:_="" ns3:_="">
     <xsd:import namespace="c5ed04f4-622d-4734-9b15-89f52925a551"/>
@@ -6253,36 +6457,79 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="bf465682-a195-48e8-a373-685144231e9c">true</_dlc_DocIdPersistId>
-    <_dlc_DocId xmlns="bf465682-a195-48e8-a373-685144231e9c">WCVJDXXHMT7D-945044613-85</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="bf465682-a195-48e8-a373-685144231e9c">
-      <Url>https://cisgov.sharepoint.com/sites/ECNhct/Offices/hct/HRIT/HCTReportingCenter/_layouts/15/DocIdRedir.aspx?ID=WCVJDXXHMT7D-945044613-85</Url>
-      <Description>WCVJDXXHMT7D-945044613-85</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73725FF9-00B7-448B-90C2-99B21669C715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE39C24-384E-4C44-9878-44FE0A7BA72C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c5ed04f4-622d-4734-9b15-89f52925a551"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bf465682-a195-48e8-a373-685144231e9c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D16E658-4C8F-4C0E-B7D2-CFF9B31601AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38192834-6563-4BBD-B913-E3DA672C0E51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6301,19 +6548,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D16E658-4C8F-4C0E-B7D2-CFF9B31601AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE39C24-384E-4C44-9878-44FE0A7BA72C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73725FF9-00B7-448B-90C2-99B21669C715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c5ed04f4-622d-4734-9b15-89f52925a551"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf465682-a195-48e8-a373-685144231e9c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/reports_project/new_month_report/new_report_1.xlsx
+++ b/reports_project/new_month_report/new_report_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF6B77C-1168-CC4E-B5DE-421E1CA6471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF35F9F8-A3D1-024D-86FB-CC41E43D0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="3400" windowWidth="23440" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -699,20 +699,11 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -742,7 +733,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -750,7 +740,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color rgb="FFE2E2E2"/>
         </left>
@@ -780,6 +770,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -787,7 +778,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFE2E2E2"/>
         </left>
@@ -2574,8 +2565,8 @@
     <tableColumn id="6" xr3:uid="{2488AE99-3DE2-4129-BFDC-71F8F04611E1}" name="Title" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{A0E81232-02AE-4C14-A66E-69BC3FEA4A55}" name="WGI DATE" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{76F0FE5A-05C3-4285-8669-6D894F30E42E}" name="SCD WGI YMD" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{ECB1F6C5-1706-4772-8D39-14796F7D5F2A}" name="Organization Cd" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{B659E2C5-C0C3-40FD-8535-373A47309D11}" name="Longtitle" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{ECB1F6C5-1706-4772-8D39-14796F7D5F2A}" name="Organization Cd" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{B659E2C5-C0C3-40FD-8535-373A47309D11}" name="Longtitle" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5397,7 +5388,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:A15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5506,19 +5497,19 @@
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>45292</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5528,19 +5519,19 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>45296</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5550,19 +5541,19 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>45330</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5572,19 +5563,19 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>45339</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5594,19 +5585,19 @@
       <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>45347</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,19 +5607,19 @@
       <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>45349</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5637,19 +5628,19 @@
       <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>45308</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5658,19 +5649,19 @@
       <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>45318</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5679,19 +5670,19 @@
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>45601</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5700,19 +5691,19 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>45318</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5721,19 +5712,19 @@
       <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>45394</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5742,19 +5733,19 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <v>45512</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -5763,19 +5754,19 @@
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <v>45488</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5784,19 +5775,19 @@
       <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>45489</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -5805,19 +5796,19 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>45397</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -5826,19 +5817,19 @@
       <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>45461</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5847,19 +5838,19 @@
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="22">
         <v>45448</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -5868,19 +5859,19 @@
       <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="22">
         <v>45450</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -5889,19 +5880,19 @@
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="22">
         <v>45323</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -5910,19 +5901,19 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="22">
         <v>45570</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -5931,19 +5922,19 @@
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <v>45536</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5958,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C2578-2525-4DC1-B795-16107A4AB6FC}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6022,7 +6013,7 @@
         <v>45935</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="28" t="s">
         <v>134</v>
       </c>
       <c r="J2" s="19"/>
@@ -6040,7 +6031,7 @@
         <v>45949</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="28" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="19"/>
@@ -6058,7 +6049,7 @@
         <v>45949</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="28" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="19"/>
@@ -6076,7 +6067,7 @@
         <v>45949</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="28" t="s">
         <v>135</v>
       </c>
       <c r="J5" s="19"/>
@@ -6094,7 +6085,7 @@
         <v>45963</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J6" s="19"/>
@@ -6112,7 +6103,7 @@
         <v>45963</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="28" t="s">
         <v>137</v>
       </c>
       <c r="J7" s="19"/>
@@ -6130,7 +6121,7 @@
         <v>45977</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="28" t="s">
         <v>134</v>
       </c>
       <c r="J8" s="19"/>
@@ -6148,7 +6139,7 @@
         <v>45991</v>
       </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="28" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="19"/>
@@ -6166,7 +6157,7 @@
         <v>45991</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="28" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="19"/>
@@ -6184,7 +6175,7 @@
         <v>46019</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="28" t="s">
         <v>135</v>
       </c>
       <c r="J11" s="19"/>
@@ -6202,7 +6193,7 @@
         <v>46019</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J12" s="19"/>
@@ -6220,7 +6211,7 @@
         <v>46033</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="28" t="s">
         <v>137</v>
       </c>
       <c r="J13" s="19"/>
@@ -6238,7 +6229,7 @@
         <v>46033</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="28" t="s">
         <v>134</v>
       </c>
       <c r="J14" s="19"/>
@@ -6256,7 +6247,7 @@
         <v>46047</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="28" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="19"/>
@@ -6271,16 +6262,53 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="bf465682-a195-48e8-a373-685144231e9c">true</_dlc_DocIdPersistId>
-    <_dlc_DocId xmlns="bf465682-a195-48e8-a373-685144231e9c">WCVJDXXHMT7D-945044613-85</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="bf465682-a195-48e8-a373-685144231e9c">
-      <Url>https://cisgov.sharepoint.com/sites/ECNhct/Offices/hct/HRIT/HCTReportingCenter/_layouts/15/DocIdRedir.aspx?ID=WCVJDXXHMT7D-945044613-85</Url>
-      <Description>WCVJDXXHMT7D-945044613-85</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6458,53 +6486,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="bf465682-a195-48e8-a373-685144231e9c">true</_dlc_DocIdPersistId>
+    <_dlc_DocId xmlns="bf465682-a195-48e8-a373-685144231e9c">WCVJDXXHMT7D-945044613-85</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="bf465682-a195-48e8-a373-685144231e9c">
+      <Url>https://cisgov.sharepoint.com/sites/ECNhct/Offices/hct/HRIT/HCTReportingCenter/_layouts/15/DocIdRedir.aspx?ID=WCVJDXXHMT7D-945044613-85</Url>
+      <Description>WCVJDXXHMT7D-945044613-85</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6513,18 +6504,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE39C24-384E-4C44-9878-44FE0A7BA72C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D16E658-4C8F-4C0E-B7D2-CFF9B31601AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c5ed04f4-622d-4734-9b15-89f52925a551"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf465682-a195-48e8-a373-685144231e9c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6549,9 +6531,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D16E658-4C8F-4C0E-B7D2-CFF9B31601AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DE39C24-384E-4C44-9878-44FE0A7BA72C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c5ed04f4-622d-4734-9b15-89f52925a551"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bf465682-a195-48e8-a373-685144231e9c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/reports_project/new_month_report/new_report_1.xlsx
+++ b/reports_project/new_month_report/new_report_1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10118"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF35F9F8-A3D1-024D-86FB-CC41E43D0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790ADBAE-4645-504B-B751-AD79BCD15B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5260" yWindow="3400" windowWidth="23440" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,6 +716,1293 @@
     <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="51">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF959595"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF959595"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF959595"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF959595"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF959595"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1155,1293 +2442,6 @@
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF959595"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF959595"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF959595"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF959595"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF959595"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2456,7 +2456,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C402898B-1F29-46AE-93E4-650D764269AA}" name="Table1" displayName="Table1" ref="A1:S91" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C402898B-1F29-46AE-93E4-650D764269AA}" name="Table1" displayName="Table1" ref="A1:S91" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A1:S91" xr:uid="{C402898B-1F29-46AE-93E4-650D764269AA}">
     <filterColumn colId="0">
       <filters>
@@ -2475,32 +2475,32 @@
     <sortCondition ref="L1:L2"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{C7725C49-BB83-4C9A-A839-3E1F0BD0EF85}" name="ORG CODE" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{DC445E5B-AF04-4357-90A5-B715F53662C6}" name="EMPLOYEE NAME" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{A692BDD1-1073-4260-9F12-3FEFBF6ED388}" name="POSITION TITLE" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{41CA3841-2F3A-4FEC-B74E-1E78A00E4017}" name="IPN" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{BFADDF9E-59B8-44FD-9FFC-B12C8BDA242B}" name="PP" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{9717FFE6-92CC-4025-815E-201C2BAA45D9}" name="SERIES" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{28DB058D-9AD7-4DD3-BE86-B1D35BC2F84A}" name="GD" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{37C78208-0B0D-4D36-82F0-50001A10716B}" name="TARGET GR" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{AF995B83-5E1F-40E5-ADC2-9C8039946EF7}" name="OFC" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{EC922F22-2B24-4572-BBC6-EA6A22EE1688}" name="CAT CODE" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{97CCC4C8-E7DA-44E2-A8CA-2AAEC1A7683A}" name="EOD CIS" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{E59B726E-A00A-4D3D-B1AF-72FE2492E707}" name="ENTER PRES GR" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{0832597D-76F3-4118-BE62-D2FF84094B99}" name="WORK SCHEDULE" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{0174AC6B-A3C0-478A-8680-C2D21A0FF39D}" name="ORG_CODE_LEVEL_2_DESCR" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{2C24532D-1A05-440D-8609-800F0E859016}" name="ORG_CODE_LEVEL_3_DESCR" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{3B601192-224A-4D72-AD2D-127E14CEED0E}" name="ORG_CODE_LEVEL_4_DESCR" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{B1085BB1-9551-48DC-8A9C-2452DB6CE6E3}" name="ORG_CODE_LEVEL_5_DESCR" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{80CC6877-F265-46D8-A06A-53E4836071C6}" name="CITY_NAME" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{D1F4502D-E328-45B2-A809-278CF0774A94}" name="STATE_NAME" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{C7725C49-BB83-4C9A-A839-3E1F0BD0EF85}" name="ORG CODE" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{DC445E5B-AF04-4357-90A5-B715F53662C6}" name="EMPLOYEE NAME" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A692BDD1-1073-4260-9F12-3FEFBF6ED388}" name="POSITION TITLE" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{41CA3841-2F3A-4FEC-B74E-1E78A00E4017}" name="IPN" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{BFADDF9E-59B8-44FD-9FFC-B12C8BDA242B}" name="PP" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{9717FFE6-92CC-4025-815E-201C2BAA45D9}" name="SERIES" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{28DB058D-9AD7-4DD3-BE86-B1D35BC2F84A}" name="GD" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{37C78208-0B0D-4D36-82F0-50001A10716B}" name="TARGET GR" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{AF995B83-5E1F-40E5-ADC2-9C8039946EF7}" name="OFC" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{EC922F22-2B24-4572-BBC6-EA6A22EE1688}" name="CAT CODE" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{97CCC4C8-E7DA-44E2-A8CA-2AAEC1A7683A}" name="EOD CIS" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{E59B726E-A00A-4D3D-B1AF-72FE2492E707}" name="ENTER PRES GR" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{0832597D-76F3-4118-BE62-D2FF84094B99}" name="WORK SCHEDULE" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{0174AC6B-A3C0-478A-8680-C2D21A0FF39D}" name="ORG_CODE_LEVEL_2_DESCR" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{2C24532D-1A05-440D-8609-800F0E859016}" name="ORG_CODE_LEVEL_3_DESCR" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{3B601192-224A-4D72-AD2D-127E14CEED0E}" name="ORG_CODE_LEVEL_4_DESCR" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{B1085BB1-9551-48DC-8A9C-2452DB6CE6E3}" name="ORG_CODE_LEVEL_5_DESCR" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{80CC6877-F265-46D8-A06A-53E4836071C6}" name="CITY_NAME" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{D1F4502D-E328-45B2-A809-278CF0774A94}" name="STATE_NAME" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}" name="Table2" displayName="Table2" ref="A1:M24" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}" name="Table2" displayName="Table2" ref="A1:M24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:M24" xr:uid="{4AE4F922-F0EC-40B4-BC41-C699B2D6BAE4}">
     <filterColumn colId="0">
       <filters>
@@ -2519,26 +2519,26 @@
     <sortCondition ref="C1:C3"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F9AF80B6-6878-4BA0-BAD5-DCEE169549F7}" name="ORG_CODE" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{3977BD6E-118A-4EE5-AF0A-553AA0A2C879}" name="Employee Name" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9C44D2D0-F2B5-4B21-958A-2DB3CB909B06}" name="APPNT EFF DATE" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{3F8501AA-1D3B-4EB4-B17B-CDBE99D32D22}" name="APPNT NOA " dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{64104D61-D9FB-4D98-9B23-63AA56CB1EA9}" name="APPNT 1ST AUTH" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{C19C2C3E-F453-4BB2-ACEE-B991A9B4D2E0}" name="POSITION TITLE" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{C7B93B9A-AA5A-423F-8155-6B54CE1A003C}" name="SERIES" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{64745A3D-5027-4644-AF5E-62F2455DF9B7}" name="GRADE" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{8CB55901-EA7F-4349-A0AB-8E5891EEDC2A}" name="TENURE" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{FF0306F6-B6B4-43FF-B7BE-48CFADD0BF8A}" name="ORG_CODE_LEVEL_2_DESCR" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{BDB8FBA7-544F-41B8-AEED-9112DE31A7D5}" name="ORG_CODE_LEVEL_3_DESCR" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{989B987E-EC6A-460B-A0EC-D2F17CE3DAC8}" name="ORG_CODE_LEVEL_4_DESCR" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{679BC5AF-1890-4D76-AB72-DBF10D00E30B}" name="ORG_CODE_LEVEL_5_DESCR" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F9AF80B6-6878-4BA0-BAD5-DCEE169549F7}" name="ORG_CODE" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3977BD6E-118A-4EE5-AF0A-553AA0A2C879}" name="Employee Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9C44D2D0-F2B5-4B21-958A-2DB3CB909B06}" name="APPNT EFF DATE" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3F8501AA-1D3B-4EB4-B17B-CDBE99D32D22}" name="APPNT NOA " dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{64104D61-D9FB-4D98-9B23-63AA56CB1EA9}" name="APPNT 1ST AUTH" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C19C2C3E-F453-4BB2-ACEE-B991A9B4D2E0}" name="POSITION TITLE" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{C7B93B9A-AA5A-423F-8155-6B54CE1A003C}" name="SERIES" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{64745A3D-5027-4644-AF5E-62F2455DF9B7}" name="GRADE" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8CB55901-EA7F-4349-A0AB-8E5891EEDC2A}" name="TENURE" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{FF0306F6-B6B4-43FF-B7BE-48CFADD0BF8A}" name="ORG_CODE_LEVEL_2_DESCR" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{BDB8FBA7-544F-41B8-AEED-9112DE31A7D5}" name="ORG_CODE_LEVEL_3_DESCR" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{989B987E-EC6A-460B-A0EC-D2F17CE3DAC8}" name="ORG_CODE_LEVEL_4_DESCR" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{679BC5AF-1890-4D76-AB72-DBF10D00E30B}" name="ORG_CODE_LEVEL_5_DESCR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC991E26-85FC-41E7-823E-BC2855330FD6}" name="Table4" displayName="Table4" ref="A1:J15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC991E26-85FC-41E7-823E-BC2855330FD6}" name="Table4" displayName="Table4" ref="A1:J15" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A1:J15" xr:uid="{DC991E26-85FC-41E7-823E-BC2855330FD6}">
     <filterColumn colId="8">
       <filters>
@@ -2557,16 +2557,16 @@
     <sortCondition ref="G1:G15"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FA489DEB-2CC6-4FFB-B751-7C47891ABFFA}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9C50CAFC-6FEE-470B-A366-13333A2C73E5}" name="Pay Plan" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0E617942-B177-495B-88ED-60327A662577}" name="Grade" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0A728D17-5C11-46D6-8C1E-DDDE33A91022}" name="Step" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{03792EBD-9895-4833-9BAA-FC0690C3A3D2}" name="Series" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{2488AE99-3DE2-4129-BFDC-71F8F04611E1}" name="Title" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{A0E81232-02AE-4C14-A66E-69BC3FEA4A55}" name="WGI DATE" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{76F0FE5A-05C3-4285-8669-6D894F30E42E}" name="SCD WGI YMD" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{ECB1F6C5-1706-4772-8D39-14796F7D5F2A}" name="Organization Cd" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B659E2C5-C0C3-40FD-8535-373A47309D11}" name="Longtitle" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FA489DEB-2CC6-4FFB-B751-7C47891ABFFA}" name="Name" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{9C50CAFC-6FEE-470B-A366-13333A2C73E5}" name="Pay Plan" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{0E617942-B177-495B-88ED-60327A662577}" name="Grade" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{0A728D17-5C11-46D6-8C1E-DDDE33A91022}" name="Step" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{03792EBD-9895-4833-9BAA-FC0690C3A3D2}" name="Series" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{2488AE99-3DE2-4129-BFDC-71F8F04611E1}" name="Title" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{A0E81232-02AE-4C14-A66E-69BC3FEA4A55}" name="WGI DATE" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{76F0FE5A-05C3-4285-8669-6D894F30E42E}" name="SCD WGI YMD" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{ECB1F6C5-1706-4772-8D39-14796F7D5F2A}" name="Organization Cd" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{B659E2C5-C0C3-40FD-8535-373A47309D11}" name="Longtitle" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5950,7 +5950,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6312,6 +6312,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="bf465682-a195-48e8-a373-685144231e9c">true</_dlc_DocIdPersistId>
+    <_dlc_DocId xmlns="bf465682-a195-48e8-a373-685144231e9c">WCVJDXXHMT7D-945044613-85</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="bf465682-a195-48e8-a373-685144231e9c">
+      <Url>https://cisgov.sharepoint.com/sites/ECNhct/Offices/hct/HRIT/HCTReportingCenter/_layouts/15/DocIdRedir.aspx?ID=WCVJDXXHMT7D-945044613-85</Url>
+      <Description>WCVJDXXHMT7D-945044613-85</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AD585D709FE2F4E8E78CCAD878BB7B2" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86a8288cca08b2275286a7cc5415fffa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c5ed04f4-622d-4734-9b15-89f52925a551" xmlns:ns3="bf465682-a195-48e8-a373-685144231e9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ae85b8bc60391f2b6a9cfc680ba816" ns2:_="" ns3:_="">
     <xsd:import namespace="c5ed04f4-622d-4734-9b15-89f52925a551"/>
@@ -6485,24 +6503,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="bf465682-a195-48e8-a373-685144231e9c">true</_dlc_DocIdPersistId>
-    <_dlc_DocId xmlns="bf465682-a195-48e8-a373-685144231e9c">WCVJDXXHMT7D-945044613-85</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="bf465682-a195-48e8-a373-685144231e9c">
-      <Url>https://cisgov.sharepoint.com/sites/ECNhct/Offices/hct/HRIT/HCTReportingCenter/_layouts/15/DocIdRedir.aspx?ID=WCVJDXXHMT7D-945044613-85</Url>
-      <Description>WCVJDXXHMT7D-945044613-85</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D16E658-4C8F-4C0E-B7D2-CFF9B31601AF}">
   <ds:schemaRefs>
@@ -6512,20 +6512,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38192834-6563-4BBD-B913-E3DA672C0E51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73725FF9-00B7-448B-90C2-99B21669C715}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c5ed04f4-622d-4734-9b15-89f52925a551"/>
-    <ds:schemaRef ds:uri="bf465682-a195-48e8-a373-685144231e9c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6548,9 +6537,20 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73725FF9-00B7-448B-90C2-99B21669C715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38192834-6563-4BBD-B913-E3DA672C0E51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c5ed04f4-622d-4734-9b15-89f52925a551"/>
+    <ds:schemaRef ds:uri="bf465682-a195-48e8-a373-685144231e9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>